--- a/resources/testexcel.xlsx
+++ b/resources/testexcel.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ag9068/seleniumDemo/github/SeleniumTestAutomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C20071-BA52-894B-B155-BCFACBB2B23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6382FF5-2432-454E-AAE2-9C695765CF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16180" activeTab="1" xr2:uid="{96FA3EA7-D89A-3249-961C-852237759BE2}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16180" activeTab="2" xr2:uid="{96FA3EA7-D89A-3249-961C-852237759BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="abc" sheetId="1" r:id="rId1"/>
     <sheet name="xyz" sheetId="2" r:id="rId2"/>
+    <sheet name="Credential" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>User_Name</t>
   </si>
@@ -101,13 +103,55 @@
   </si>
   <si>
     <t>cdvf</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>salma11</t>
+  </si>
+  <si>
+    <t>test4321</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>tripType</t>
+  </si>
+  <si>
+    <t>Departing</t>
+  </si>
+  <si>
+    <t>Arriving</t>
+  </si>
+  <si>
+    <t>Salma11</t>
+  </si>
+  <si>
+    <t>Test4321</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>oneway</t>
+  </si>
+  <si>
+    <t>ahlink</t>
+  </si>
+  <si>
+    <t>roundtrip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +166,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,10 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEF0F9C-8428-7749-BB3F-EBFD3E4BBEC6}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -584,4 +635,112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2E1246-EE20-2F43-B6A0-32A879171FA0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>121212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E384116-5EA7-EE40-968D-FBE926D57F6D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>121212</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>